--- a/BurnupChart2&3.xlsx
+++ b/BurnupChart2&3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si/>
   <si>
     <t>Burn-Up Chart Sprint #3</t>
@@ -40,9 +40,6 @@
     <t>W May 18</t>
   </si>
   <si>
-    <t>+120</t>
-  </si>
-  <si>
     <t>F May 20</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
   </si>
   <si>
     <t>F May 27</t>
-  </si>
-  <si>
-    <t>M May 30</t>
-  </si>
-  <si>
-    <t>W Jun 1</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -108,13 +99,13 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -258,7 +249,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -268,10 +259,10 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -283,7 +274,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -292,16 +283,13 @@
     <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -351,10 +339,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0902262"/>
-          <c:y val="0.114217"/>
-          <c:w val="0.866051"/>
-          <c:h val="0.728408"/>
+          <c:x val="0.130762"/>
+          <c:y val="0.108047"/>
+          <c:w val="0.82348"/>
+          <c:h val="0.688382"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -433,9 +421,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>M May 16 </c:v>
                 </c:pt>
@@ -453,21 +441,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>F May 27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M May 30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>W Jun 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$C$3:$C$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2895.000000</c:v>
                 </c:pt>
@@ -475,22 +457,16 @@
                   <c:v>2895.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2895.000000</c:v>
+                  <c:v>2985.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2895.000000</c:v>
+                  <c:v>2985.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2895.000000</c:v>
+                  <c:v>2985.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2895.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2895.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2895.000000</c:v>
+                  <c:v>2985.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,9 +544,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>M May 16 </c:v>
                 </c:pt>
@@ -588,44 +564,32 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>F May 27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M May 30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>W Jun 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$D$3:$D$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$D$3:$D$8</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>361.875000</c:v>
+                  <c:v>482.500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>723.750000</c:v>
+                  <c:v>965.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1085.625000</c:v>
+                  <c:v>1492.500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1447.500000</c:v>
+                  <c:v>1990.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1809.375000</c:v>
+                  <c:v>2487.500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2171.250000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2533.125000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2895.000000</c:v>
+                  <c:v>2985.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,9 +667,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>M May 16 </c:v>
                 </c:pt>
@@ -723,23 +687,32 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>F May 27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M May 30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>W Jun 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$E$3:$E$10</c:f>
+              <c:f>'Sprint 3 - Burn-Up Chart Sprint'!$E$3:$E$8</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>245.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1295.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1505.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1775.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2315.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,6 +730,35 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -821,6 +823,35 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" i="0" strike="noStrike" sz="1100" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -871,10 +902,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0524156"/>
+          <c:x val="0.0948103"/>
           <c:y val="0"/>
-          <c:w val="0.896136"/>
-          <c:h val="0.0610685"/>
+          <c:w val="0.852086"/>
+          <c:h val="0.05912"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1537,15 +1568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>589915</xdr:colOff>
+      <xdr:colOff>348615</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>713417</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>5713</xdr:rowOff>
+      <xdr:colOff>735867</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1553,8 +1584,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3893820" y="-255905"/>
-        <a:ext cx="5101903" cy="4225289"/>
+        <a:off x="3652520" y="-255905"/>
+        <a:ext cx="5365653" cy="4466589"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2690,7 +2721,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2743,8 +2774,8 @@
         <v>2895</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/B$10*B3</f>
-        <v>361.875</v>
+        <f>C3/B$8*B3</f>
+        <v>482.5</v>
       </c>
       <c r="E3" s="7">
         <f>45+120+10+60+10</f>
@@ -2762,126 +2793,109 @@
         <v>2895</v>
       </c>
       <c r="D4" s="10">
-        <f>C4/B$10*B4</f>
-        <v>723.75</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>9</v>
+        <f>C4/B$8*B4</f>
+        <v>965</v>
+      </c>
+      <c r="E4" s="11">
+        <f>E3+120</f>
+        <v>365</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <v>2895</v>
+        <f>C4+90</f>
+        <v>2985</v>
       </c>
       <c r="D5" s="10">
-        <f>C5/B$10*B5</f>
-        <v>1085.625</v>
-      </c>
-      <c r="E5" s="12"/>
+        <f>C5/B$8*B5</f>
+        <v>1492.5</v>
+      </c>
+      <c r="E5" s="11">
+        <f>E4+60*9+5*60+90</f>
+        <v>1295</v>
+      </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="10">
-        <v>2895</v>
+        <v>2985</v>
       </c>
       <c r="D6" s="10">
-        <f>C6/B$10*B6</f>
-        <v>1447.5</v>
-      </c>
-      <c r="E6" s="12"/>
+        <f>C6/B$8*B6</f>
+        <v>1990</v>
+      </c>
+      <c r="E6" s="11">
+        <f>E5+120+90</f>
+        <v>1505</v>
+      </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="10">
-        <v>2895</v>
+        <v>2985</v>
       </c>
       <c r="D7" s="10">
-        <f>C7/B$10*B7</f>
-        <v>1809.375</v>
-      </c>
-      <c r="E7" s="12"/>
+        <f>C7/B$8*B7</f>
+        <v>2487.5</v>
+      </c>
+      <c r="E7" s="11">
+        <f>E6+90*3</f>
+        <v>1775</v>
+      </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="10">
-        <v>2895</v>
+        <v>2985</v>
       </c>
       <c r="D8" s="10">
-        <f>C8/B$10*B8</f>
-        <v>2171.25</v>
-      </c>
-      <c r="E8" s="12"/>
+        <f>C8/B$8*B8</f>
+        <v>2985</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E7+9*60</f>
+        <v>2315</v>
+      </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2895</v>
-      </c>
-      <c r="D9" s="10">
-        <f>C9/B$10*B9</f>
-        <v>2533.125</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2895</v>
-      </c>
-      <c r="D10" s="10">
-        <f>C10/B$10*B10</f>
-        <v>2895</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
-        <v>2895</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f>C8</f>
+        <v>2985</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2909,17 +2923,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.26562" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.11719" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.40625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.40625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.4062" style="15" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.26562" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.11719" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.40625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.40625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.4062" style="14" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2945,7 +2959,7 @@
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2963,7 +2977,7 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -2975,13 +2989,13 @@
         <f>C4/B$9*B4</f>
         <v>777.1428571428571</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>340</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -2993,14 +3007,14 @@
         <f>C5/B$9*B5</f>
         <v>1165.714285714286</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f>E4+540</f>
         <v>880</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -3012,14 +3026,14 @@
         <f>C6/B$9*B6</f>
         <v>1742.857142857143</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f>E5+330+90+120</f>
         <v>1420</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -3031,14 +3045,14 @@
         <f>C7/B$9*B7</f>
         <v>2178.571428571428</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <f>E6+3*60</f>
         <v>1600</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
@@ -3051,14 +3065,14 @@
         <f>C8/B$9*B8</f>
         <v>2820</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <f>E7+6*60</f>
         <v>1960</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9">
         <v>7</v>
@@ -3071,29 +3085,29 @@
         <f>C9/B$9*B9</f>
         <v>3530</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <f>E8+9*60</f>
         <v>2500</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <f>2720+330+4*60+4*60</f>
         <v>3530</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
